--- a/Materiaal/BestellijstV1.xlsx
+++ b/Materiaal/BestellijstV1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin Lahey\Desktop\AP\J2S2\IoT Project\Slimme_Baken_PoAB\Materiaal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EC708BF-43C0-41DF-B59C-42EC428AB73D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E1FDD70-278C-4000-934B-965D2421B907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -450,8 +450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -689,6 +689,8 @@
     <hyperlink ref="H5" r:id="rId1" xr:uid="{6DBB13E9-C984-4E0A-AE64-5A7F1C0570B3}"/>
     <hyperlink ref="H2" r:id="rId2" xr:uid="{0F66731A-E47A-4AB2-92E4-743AD0AA70E5}"/>
     <hyperlink ref="H3" r:id="rId3" xr:uid="{A42E4266-5BC7-4E1F-9974-3A697E1FCD57}"/>
+    <hyperlink ref="H8" r:id="rId4" xr:uid="{178049F9-BA4B-4262-8F51-F7C269E3EBF0}"/>
+    <hyperlink ref="H9" r:id="rId5" xr:uid="{4513433B-B395-4FE0-A2F3-C118E942B68C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
